--- a/File/ProjectData.xlsx
+++ b/File/ProjectData.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67E3767-8732-4861-8905-85B2F9316D06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045F0B67-9D08-4E44-9288-39A2A67D9408}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Sr No</t>
   </si>
@@ -56,6 +57,9 @@
   </si>
   <si>
     <t>https://kite.zerodha.com/</t>
+  </si>
+  <si>
+    <t>Men</t>
   </si>
 </sst>
 </file>
@@ -401,7 +405,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +530,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -625,4 +629,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BE1117-0A0F-4D6E-9519-5CA02F405DF4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/File/ProjectData.xlsx
+++ b/File/ProjectData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045F0B67-9D08-4E44-9288-39A2A67D9408}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA43AD6-400E-4866-A328-404EFCAFCCEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,7 +405,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
